--- a/project/excel/oscem_schemas.xlsx
+++ b/project/excel/oscem_schemas.xlsx
@@ -7,9 +7,35 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="NamedThing" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="EMDataset" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="EMDatasetCollection" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="tilt_angle" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="base" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="acquisition" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="nominal_defocus" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="calibrated_defocus" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="temperature_range" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="energy_filter" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="image_size" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="specialist_optics" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="phaseplate" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="spherical_Aberration_Corrector" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="chromatic_Aberration_Corrector" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="beamshift" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="beamtilt" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="imagehift" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="testschema" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="instrument" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Grant" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Author" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="AuthorName" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Organization" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="OverallMolecule" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="Molecule" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="Ligand" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="Specimen" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="Grid" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="Sample" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="OSCEMSample" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="EMDataset" sheetId="29" state="visible" r:id="rId29"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,17 +452,402 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>name</t>
+          <t>Minimal</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Maximal</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>Increment</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Used</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Used</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Used</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>X_min</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>X_max</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Y_min</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Y_max</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>X_min</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>X_max</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Y_min</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Y_max</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>X_min</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>X_max</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Y_min</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Y_max</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Instrument</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Microscope</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Illumination</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Imaging</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Electron_source</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Acceleration_Voltage</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>C2_Aperture</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>grant_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>funding_agency</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>author_name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>phone</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>orcid</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>organization</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>role</t>
         </is>
       </c>
     </row>
@@ -451,79 +862,850 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>primary_email</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>birth_date</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>age_in_years</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>vital_status</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>description</t>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Acquisition</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>first_name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>last_name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name_org</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>type_org</t>
         </is>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="D2:D1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"ALIVE,DEAD,UNKNOWN"</formula1>
+    <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Academic,Commercial,Government,Other"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name_sample</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>molecular_weight</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name_mol</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>molecular_class</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>sequence</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>natural_source</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>taxonomy_id_source</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>expression_system</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>taxonomy_id_expression</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>gene_name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="C2:C1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Antibiotic,Carbohydrate,Chimera,None of these"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>present</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>smile</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>buffer</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>concentration</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>ph</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>vitrification</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>vitrification_cryogen</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>humidity</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>temperature</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>staining</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>embedding</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>shadowing</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>manufacturer</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>material</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>mesh</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>film_support</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>film_material</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>film_topology</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>film_thickness</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>pretreatment_type</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>pretreatment_time</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>pretreatment_pressure</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>pretreatment_atmosphere</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>overall_molecule</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>molecule</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>ligands</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>specimen</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>grid</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>grant</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>author</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Acquisition</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Instrument</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>oscemsample</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>entries</t>
+  <dimension ref="A1:AA1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Nominal_defocus</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Calibrated_defocus</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Nominal_magnification</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Calibrated_magnification</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Holder</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Holder_cryogen</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Microscope_software</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Detector</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Detector_mode</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Dose_per_movie</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Energy_filter</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Image_size</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Datetime</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Exposure_time</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Cryogen</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Frames_per_movie</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Grids_imaged</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Images_generated</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Binning_camera</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Pixel_size</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Specialist_Optics</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>Beamshift</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>Beamtilt</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Imageshift</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>Beamtiltgroups</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>GainRef_FlipRotate</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Minimal</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Maximal</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Minimal</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Maximal</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Minimal</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Maximal</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Used</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Model</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Width</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Height</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Width</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Phaseplate</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Spherical_Aberration_Corrector</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Chromatic_Aberration_Corrector</t>
         </is>
       </c>
     </row>

--- a/project/excel/oscem_schemas.xlsx
+++ b/project/excel/oscem_schemas.xlsx
@@ -1,41 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tilt_angle" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="base" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="acquisition" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="nominal_defocus" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="calibrated_defocus" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="temperature_range" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="energy_filter" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="image_size" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="specialist_optics" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="phaseplate" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="spherical_Aberration_Corrector" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="chromatic_Aberration_Corrector" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="beamshift" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="beamtilt" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="imagehift" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="testschema" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="instrument" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OverallMolecule" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Molecule" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ligand" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Specimen" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grid" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sample" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Person" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Author" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Institution" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grant" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="QuantityValue" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EMDataset" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="TiltAngle" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Range" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Series" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ImageSize" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="BoundingBox2D" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Acquisition" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="EnergyFilter" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="SpecialistOptics" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Phaseplate" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="SphericalAberrationCorrector" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="ChromaticAberrationCorrector" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Instrument" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Person" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Author" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Institution" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Grant" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="QuantityValue" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="OverallMolecule" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Molecule" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Ligand" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Specimen" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Grid" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="Sample" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="EMDataset" sheetId="24" state="visible" r:id="rId24"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,17 +447,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Minimal</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Maximal</t>
+          <t>increment</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>minimal</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Increment</t>
+          <t>maximal</t>
         </is>
       </c>
     </row>
@@ -488,12 +483,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Used</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Type</t>
+          <t>used</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>instrument_type</t>
         </is>
       </c>
     </row>
@@ -519,12 +514,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Used</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Type</t>
+          <t>used</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>instrument_type</t>
         </is>
       </c>
     </row>
@@ -539,6 +534,174 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>microscope</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>illumination</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>imaging</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>electron_source</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>acceleration_voltage</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>c2_aperture</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>cs</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>first_name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>work_status</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>work_phone</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>institution</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>orcid</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>first_name</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>work_status</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>work_phone</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -550,21 +713,108 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Used</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+          <t>name_org</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>type_org</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Academic,Commercial,Government,Other"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>funder</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>start_date</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>end_date</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>budget</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>project_id</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>has_value</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>has_unit</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -581,226 +831,21 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>X_min</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>X_max</t>
+          <t>molecular_type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name_sample</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Y_min</t>
+          <t>source</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Y_max</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>X_min</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>X_max</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Y_min</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Y_max</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>X_min</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>X_max</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Y_min</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Y_max</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Instrument</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Microscope</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Illumination</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Imaging</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Electron_source</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Acceleration_Voltage</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>C2_Aperture</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>CS</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>name_sample</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>source</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
           <t>molecular_weight</t>
         </is>
       </c>
@@ -832,7 +877,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>molecular_type</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -887,18 +932,23 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Acquisition</t>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>maximal</t>
         </is>
       </c>
     </row>
@@ -1153,102 +1203,372 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>first_name</t>
+          <t>acquisition</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>instrument</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>work_status</t>
+          <t>sample</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>grants</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>work_phone</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>institution</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>orcid</t>
+          <t>authors</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>increment</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>minimal</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>country</t>
+          <t>maximal</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>height</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>width</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>x_min</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>x_max</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>y_min</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>y_max</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AA1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>nominal_defocus</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>calibrated_defocus</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>nominal_magnification</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>calibrated_magnification</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>holder</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>first_name</t>
+          <t>holder_cryogen</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>work_status</t>
+          <t>temperature_range</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>microscope_software</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>work_phone</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+          <t>detector</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>detector_mode</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>dose_per_movie</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>energy_filter</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>image_size</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>datetime</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>exposure_time</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>cryogen</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>frames_per_movie</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>grids_imaged</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>images_generated</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>binning_camera</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>pixel_size</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>specialist_optics</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>beamshift</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>beamtilt</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>imageshift</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>beamtiltgroups</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>gainref_flip_rotate</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>used</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>width</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>phaseplate</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>spherical_aberration_corrector</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>chromatic_aberration_corrector</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1265,497 +1585,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>name_org</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>type_org</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"Academic,Commercial,Government,Other"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>funder</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>start_date</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>end_date</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>budget</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>project_id</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>has_value</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>has_unit</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Acquisition</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Instrument</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>sample</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>authors</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AA1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Nominal_defocus</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Calibrated_defocus</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Nominal_magnification</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Calibrated_magnification</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Holder</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Holder_cryogen</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Temperature</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Microscope_software</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Detector</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Detector_mode</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Dose_per_movie</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Energy_filter</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Image_size</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Datetime</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Exposure_time</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Cryogen</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Frames_per_movie</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Grids_imaged</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Images_generated</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Binning_camera</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Pixel_size</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Specialist_Optics</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Beamshift</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Beamtilt</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Imageshift</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Beamtiltgroups</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>GainRef_FlipRotate</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Minimal</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Maximal</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Minimal</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Maximal</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Minimal</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Maximal</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Used</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Model</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Width</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Height</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Width</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Phaseplate</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Spherical_Aberration_Corrector</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Chromatic_Aberration_Corrector</t>
+          <t>used</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>instrument_type</t>
         </is>
       </c>
     </row>

--- a/project/excel/oscem_schemas.xlsx
+++ b/project/excel/oscem_schemas.xlsx
@@ -8,29 +8,30 @@
   </bookViews>
   <sheets>
     <sheet name="TiltAngle" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Range" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Series" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ImageSize" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="BoundingBox2D" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Acquisition" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="EnergyFilter" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="SpecialistOptics" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Phaseplate" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="SphericalAberrationCorrector" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="ChromaticAberrationCorrector" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Instrument" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Person" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Author" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Institution" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Grant" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="QuantityValue" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="OverallMolecule" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Molecule" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Ligand" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Specimen" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="Grid" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="Sample" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="EMDataset" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="Any" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Range" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Series" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="ImageSize" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="BoundingBox2D" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Acquisition" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="EnergyFilter" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="SpecialistOptics" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Phaseplate" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="SphericalAberrationCorrector" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="ChromaticAberrationCorrector" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Instrument" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Person" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Author" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Institution" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Grant" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="QuantityValue" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="OverallMolecule" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Molecule" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Ligand" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Specimen" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="Grid" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="Sample" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="EMDataset" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,6 +535,37 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>used</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>instrument_type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -584,7 +616,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -630,7 +662,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -696,7 +728,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -732,7 +764,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -783,7 +815,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -814,7 +846,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -855,7 +887,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -926,7 +976,282 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>present</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>smile</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>buffer</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>concentration</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>ph</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>vitrification</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>vitrification_cryogen</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>humidity</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>temperature</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>staining</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>embedding</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>shadowing</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>manufacturer</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>material</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>mesh</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>film_support</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>film_material</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>film_topology</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>film_thickness</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>pretreatment_type</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>pretreatment_time</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>pretreatment_pressure</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>pretreatment_atmosphere</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>overall_molecule</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>molecule</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>ligands</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>specimen</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>grid</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>acquisition</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>instrument</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>grants</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>authors</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -957,7 +1282,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -974,591 +1299,316 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>present</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>smile</t>
+          <t>increment</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>minimal</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>reference</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>buffer</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>concentration</t>
+          <t>maximal</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>height</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>width</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>x_min</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>x_max</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>ph</t>
+          <t>y_min</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>vitrification</t>
+          <t>y_max</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AA1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>nominal_defocus</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>calibrated_defocus</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>nominal_magnification</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>calibrated_magnification</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>vitrification_cryogen</t>
+          <t>holder</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>humidity</t>
+          <t>holder_cryogen</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>temperature</t>
+          <t>temperature_range</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>staining</t>
+          <t>microscope_software</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>embedding</t>
+          <t>detector</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>shadowing</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>manufacturer</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>material</t>
+          <t>detector_mode</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>dose_per_movie</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>energy_filter</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>image_size</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>datetime</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>exposure_time</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>cryogen</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>frames_per_movie</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>grids_imaged</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>images_generated</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>binning_camera</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>pixel_size</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>specialist_optics</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>beamshift</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>beamtilt</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>imageshift</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>beamtiltgroups</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>gainref_flip_rotate</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>used</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>model</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>mesh</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>film_support</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>film_material</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>film_topology</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>film_thickness</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>pretreatment_type</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>pretreatment_time</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>pretreatment_pressure</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>pretreatment_atmosphere</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>overall_molecule</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>molecule</t>
+          <t>width</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>phaseplate</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>spherical_aberration_corrector</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>ligands</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>specimen</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>grid</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>acquisition</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>instrument</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>sample</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>authors</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>increment</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>minimal</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>maximal</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>height</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>width</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>x_min</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>x_max</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>y_min</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>y_max</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AA1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>nominal_defocus</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>calibrated_defocus</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>nominal_magnification</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>calibrated_magnification</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>holder</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>holder_cryogen</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>temperature_range</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>microscope_software</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>detector</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>detector_mode</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>dose_per_movie</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>energy_filter</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>image_size</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>datetime</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>exposure_time</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>cryogen</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>frames_per_movie</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>grids_imaged</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>images_generated</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>binning_camera</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>pixel_size</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>specialist_optics</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>beamshift</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>beamtilt</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>imageshift</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>beamtiltgroups</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>gainref_flip_rotate</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>used</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>model</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>width</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>phaseplate</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>spherical_aberration_corrector</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
           <t>chromatic_aberration_corrector</t>
         </is>
       </c>
@@ -1566,35 +1616,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>used</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>instrument_type</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/project/excel/oscem_schemas.xlsx
+++ b/project/excel/oscem_schemas.xlsx
@@ -1,37 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="TiltAngle" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Any" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Range" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Series" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="ImageSize" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="BoundingBox2D" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Acquisition" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="EnergyFilter" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="SpecialistOptics" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Phaseplate" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="SphericalAberrationCorrector" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="ChromaticAberrationCorrector" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Instrument" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Person" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Author" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Institution" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Grant" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="QuantityValue" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="OverallMolecule" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Molecule" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Ligand" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="Specimen" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="Grid" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="Sample" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="EMDataset" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TiltAngle" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Any" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Range" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Series" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageSize" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BoundingBox2D" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Acquisition" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EnergyFilter" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SpecialistOptics" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Phaseplate" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SphericalAberrationCorrector" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ChromaticAberrationCorrector" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Instrument" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Person" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Author" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Institution" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grant" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="QuantityValue" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OverallMolecule" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Molecule" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ligand" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Specimen" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grid" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sample" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EMDataset" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1472,7 +1472,7 @@
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>datetime</t>
+          <t>date_time</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">

--- a/project/excel/oscem_schemas.xlsx
+++ b/project/excel/oscem_schemas.xlsx
@@ -22,16 +22,15 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Instrument" sheetId="13" state="visible" r:id="rId13"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Person" sheetId="14" state="visible" r:id="rId14"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Author" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Institution" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grant" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="QuantityValue" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OverallMolecule" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Molecule" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ligand" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Specimen" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grid" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sample" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EMDataset" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grant" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="QuantityValue" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OverallMolecule" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Molecule" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ligand" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Specimen" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grid" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sample" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EMDataset" sheetId="24" state="visible" r:id="rId24"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,89 +667,63 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>institution</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name_org</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>type_org</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
         <is>
           <t>orcid</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>country</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>role</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>first_name</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>work_status</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>work_phone</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>name_org</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>type_org</t>
         </is>
       </c>
     </row>
@@ -764,80 +737,121 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>funder</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>start_date</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>end_date</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>budget</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>project_id</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>funder</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>start_date</t>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>has_value</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>has_unit</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>molecular_type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name_sample</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>source</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>end_date</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>budget</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>project_id</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>has_value</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>has_unit</t>
+          <t>molecular_weight</t>
         </is>
       </c>
     </row>
@@ -847,65 +861,6 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>molecular_type</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>name_sample</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>source</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>molecular_weight</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -976,12 +931,336 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>present</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>smile</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>buffer</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>concentration</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>ph</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>vitrification</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>vitrification_cryogen</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>humidity</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>temperature</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>staining</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>embedding</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>shadowing</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>manufacturer</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>material</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>mesh</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>film_support</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>film_material</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>film_topology</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>film_thickness</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>pretreatment_type</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>pretreatment_time</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>pretreatment_pressure</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>pretreatment_atmosphere</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>overall_molecule</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>molecule</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>ligands</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>specimen</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>grid</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>acquisition</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>instrument</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>grants</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>authors</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>maximal</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -993,296 +1272,254 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>present</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>smile</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>reference</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>buffer</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>concentration</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>ph</t>
+          <t>increment</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>maximal</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>height</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>width</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>x_min</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>x_max</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>y_min</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>vitrification</t>
+          <t>y_max</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AA1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>nominal_defocus</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>calibrated_defocus</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>nominal_magnification</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>calibrated_magnification</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>vitrification_cryogen</t>
+          <t>holder</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>humidity</t>
+          <t>holder_cryogen</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>temperature</t>
+          <t>temperature_range</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>staining</t>
+          <t>microscope_software</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>embedding</t>
+          <t>detector</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>shadowing</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>manufacturer</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>material</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>mesh</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>film_support</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>film_material</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>film_topology</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>film_thickness</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>pretreatment_type</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>pretreatment_time</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>pretreatment_pressure</t>
+          <t>detector_mode</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>pretreatment_atmosphere</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>overall_molecule</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>molecule</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>ligands</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>specimen</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>grid</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>acquisition</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>instrument</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>sample</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>authors</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>minimal</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>maximal</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+          <t>dose_per_movie</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>energy_filter</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>image_size</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>date_time</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>exposure_time</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>cryogen</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>frames_per_movie</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>grids_imaged</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>images_generated</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>binning_camera</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>pixel_size</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>specialist_optics</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>beamshift</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>beamtilt</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>imageshift</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>beamtiltgroups</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>gainref_flip_rotate</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1299,46 +1536,15 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>increment</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>minimal</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>maximal</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>height</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
+          <t>used</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
         <is>
           <t>width</t>
         </is>
@@ -1349,204 +1555,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>x_min</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>x_max</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>y_min</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>y_max</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AA1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>nominal_defocus</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>calibrated_defocus</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>nominal_magnification</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>calibrated_magnification</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>holder</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>holder_cryogen</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>temperature_range</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>microscope_software</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>detector</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>detector_mode</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>dose_per_movie</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>energy_filter</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>image_size</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>date_time</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>exposure_time</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>cryogen</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>frames_per_movie</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>grids_imaged</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>images_generated</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>binning_camera</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>pixel_size</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>specialist_optics</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>beamshift</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>beamtilt</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>imageshift</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>beamtiltgroups</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>gainref_flip_rotate</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1563,42 +1572,6 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>used</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>model</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>width</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
           <t>phaseplate</t>
         </is>
       </c>

--- a/project/excel/oscem_schemas.xlsx
+++ b/project/excel/oscem_schemas.xlsx
@@ -488,7 +488,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>instrument_type</t>
+          <t>model</t>
         </is>
       </c>
     </row>
@@ -519,7 +519,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>instrument_type</t>
+          <t>model</t>
         </is>
       </c>
     </row>
@@ -550,7 +550,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>instrument_type</t>
+          <t>model</t>
         </is>
       </c>
     </row>

--- a/project/excel/oscem_schemas.xlsx
+++ b/project/excel/oscem_schemas.xlsx
@@ -13,17 +13,17 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Series" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageSize" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BoundingBox2D" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Acquisition" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EnergyFilter" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SpecialistOptics" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Phaseplate" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SphericalAberrationCorrector" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ChromaticAberrationCorrector" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Instrument" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Person" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Author" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grant" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="QuantityValue" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="QuantityValue" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Acquisition" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EnergyFilter" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SpecialistOptics" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Phaseplate" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SphericalAberrationCorrector" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ChromaticAberrationCorrector" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Instrument" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Person" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Author" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grant" sheetId="17" state="visible" r:id="rId17"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OverallMolecule" sheetId="18" state="visible" r:id="rId18"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Molecule" sheetId="19" state="visible" r:id="rId19"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ligand" sheetId="20" state="visible" r:id="rId20"/>
@@ -472,6 +472,42 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>phaseplate</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>spherical_aberration_corrector</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>chromatic_aberration_corrector</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -488,16 +524,16 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>model</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+          <t>instrument_type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -519,16 +555,16 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>model</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+          <t>instrument_type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -550,16 +586,16 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>model</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+          <t>instrument_type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -615,7 +651,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -661,7 +697,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -678,29 +714,29 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>orcid</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>name_org</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>type_org</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>orcid</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>country</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>role</t>
-        </is>
-      </c>
       <c r="F1" t="inlineStr">
         <is>
           <t>name</t>
@@ -729,7 +765,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Academic,Commercial,Government,Other"</formula1>
     </dataValidation>
   </dataValidations>
@@ -737,7 +773,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -780,37 +816,6 @@
       <c r="F1" t="inlineStr">
         <is>
           <t>project_id</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>has_value</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>has_unit</t>
         </is>
       </c>
     </row>
@@ -971,7 +976,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>smile</t>
+          <t>smiles</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -1369,6 +1374,37 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:AA1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1519,7 +1555,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1553,40 +1589,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>phaseplate</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>spherical_aberration_corrector</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>chromatic_aberration_corrector</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/project/excel/oscem_schemas.xlsx
+++ b/project/excel/oscem_schemas.xlsx
@@ -1,36 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TiltAngle" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Any" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Range" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Series" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageSize" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BoundingBox2D" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="QuantityValue" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Acquisition" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EnergyFilter" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SpecialistOptics" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Phaseplate" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SphericalAberrationCorrector" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ChromaticAberrationCorrector" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Instrument" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Person" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Author" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grant" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OverallMolecule" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Molecule" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ligand" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Specimen" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grid" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sample" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EMDataset" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="TiltAngle" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Any" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Range" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Series" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="ImageSize" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="BoundingBox2D" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="QuantityValue" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Acquisition" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="EnergyFilter" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="SpecialistOptics" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Phaseplate" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="SphericalAberrationCorrector" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="ChromaticAberrationCorrector" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Instrument" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Person" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Author" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Grant" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="OverallMolecule" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Molecule" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Ligand" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Specimen" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Grid" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="Sample" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="EMDataset" sheetId="24" state="visible" r:id="rId24"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -779,7 +779,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -816,6 +816,11 @@
       <c r="F1" t="inlineStr">
         <is>
           <t>project_id</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>country</t>
         </is>
       </c>
     </row>

--- a/project/excel/oscem_schemas.xlsx
+++ b/project/excel/oscem_schemas.xlsx
@@ -1,36 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="TiltAngle" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Any" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Range" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Series" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="ImageSize" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="BoundingBox2D" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="QuantityValue" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Acquisition" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="EnergyFilter" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="SpecialistOptics" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Phaseplate" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="SphericalAberrationCorrector" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="ChromaticAberrationCorrector" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Instrument" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Person" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Author" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Grant" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="OverallMolecule" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Molecule" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Ligand" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Specimen" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="Grid" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="Sample" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="EMDataset" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TiltAngle" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Any" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Range" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Series" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageSize" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BoundingBox2D" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="QuantityValue" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Acquisition" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EnergyFilter" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SpecialistOptics" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Phaseplate" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SphericalAberrationCorrector" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ChromaticAberrationCorrector" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Instrument" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Person" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Author" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grant" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OverallMolecule" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Molecule" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ligand" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Specimen" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grid" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sample" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EMDataset" sheetId="24" state="visible" r:id="rId24"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -835,7 +835,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -864,8 +864,18 @@
           <t>molecular_weight</t>
         </is>
       </c>
-    </row>
-  </sheetData>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>assembly</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"FILAMENT,HELICAL ARRAY,PARTICLE"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/project/excel/oscem_schemas.xlsx
+++ b/project/excel/oscem_schemas.xlsx
@@ -20,16 +20,18 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SphericalAberrationCorrector" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ChromaticAberrationCorrector" sheetId="12" state="visible" r:id="rId12"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Instrument" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Person" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Author" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grant" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OverallMolecule" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Molecule" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ligand" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Specimen" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grid" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sample" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EMDataset" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Organizational" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Person" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Author" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grant" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Funder" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sample" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OverallMolecule" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Molecule" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ligand" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Specimen" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grid" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EMDataset" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -602,6 +604,42 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>grants</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>authors</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>funder</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -642,7 +680,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -718,53 +756,48 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>funder</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>grant_name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
         <is>
           <t>start_date</t>
         </is>
       </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>end_date</t>
+        </is>
+      </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>end_date</t>
+          <t>budget</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>budget</t>
+          <t>project_id</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>project_id</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
           <t>country</t>
         </is>
       </c>
@@ -774,7 +807,125 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>funder_name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>type_org</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Academic,Commercial,Government,Other"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>overall_molecule</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>molecule</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>ligands</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>specimen</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>grid</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>maximal</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -825,7 +976,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -896,7 +1047,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -932,7 +1083,231 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>buffer</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>concentration</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>ph</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>vitrification</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>vitrification_cryogen</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>humidity</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>temperature</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>staining</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>embedding</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>shadowing</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>manufacturer</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>material</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>mesh</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>film_support</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>film_material</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>film_topology</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>film_thickness</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>pretreatment_type</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>pretreatment_time</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>pretreatment_pressure</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>pretreatment_atmosphere</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>acquisition</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>instrument</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>organizational</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>increment</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>maximal</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -949,260 +1324,249 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>minimal</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>maximal</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>buffer</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>concentration</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>ph</t>
+          <t>height</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>width</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>x_min</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>x_max</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>y_min</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>vitrification</t>
+          <t>y_max</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AA1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>nominal_defocus</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>calibrated_defocus</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>nominal_magnification</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>calibrated_magnification</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>vitrification_cryogen</t>
+          <t>holder</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>humidity</t>
+          <t>holder_cryogen</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>temperature</t>
+          <t>temperature_range</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>staining</t>
+          <t>microscope_software</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>embedding</t>
+          <t>detector</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>shadowing</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>manufacturer</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>material</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>mesh</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>film_support</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>film_material</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>film_topology</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>film_thickness</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>pretreatment_type</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>pretreatment_time</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>pretreatment_pressure</t>
+          <t>detector_mode</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>pretreatment_atmosphere</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>overall_molecule</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>molecule</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>ligands</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>specimen</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>grid</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>acquisition</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>instrument</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>sample</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>authors</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+          <t>dose_per_movie</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>energy_filter</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>image_size</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>date_time</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>exposure_time</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>cryogen</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>frames_per_movie</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>grids_imaged</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>images_generated</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>binning_camera</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>pixel_size</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>specialist_optics</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>beamshift</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>beamtilt</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>imageshift</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>beamtiltgroups</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>gainref_flip_rotate</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1219,46 +1583,15 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>increment</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>minimal</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>maximal</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>height</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
+          <t>used</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
         <is>
           <t>width</t>
         </is>
@@ -1269,235 +1602,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>x_min</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>x_max</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>y_min</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>y_max</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>unit</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AA1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>nominal_defocus</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>calibrated_defocus</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>nominal_magnification</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>calibrated_magnification</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>holder</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>holder_cryogen</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>temperature_range</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>microscope_software</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>detector</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>detector_mode</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>dose_per_movie</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>energy_filter</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>image_size</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>date_time</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>exposure_time</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>cryogen</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>frames_per_movie</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>grids_imaged</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>images_generated</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>binning_camera</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>pixel_size</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>specialist_optics</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>beamshift</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>beamtilt</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>imageshift</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>beamtiltgroups</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>gainref_flip_rotate</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1514,42 +1619,6 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>used</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>model</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>width</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
           <t>phaseplate</t>
         </is>
       </c>

--- a/project/excel/oscem_schemas.xlsx
+++ b/project/excel/oscem_schemas.xlsx
@@ -14,23 +14,38 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageSize" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BoundingBox2D" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="QuantityValue" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Acquisition" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EnergyFilter" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SpecialistOptics" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Phaseplate" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SphericalAberrationCorrector" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ChromaticAberrationCorrector" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Instrument" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Person" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Author" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grant" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OverallMolecule" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Molecule" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ligand" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Specimen" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grid" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sample" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EMDataset" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Descriptors" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Acquisition" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EnergyFilter" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SpecialistOptics" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Phaseplate" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SphericalAberrationCorrector" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ChromaticAberrationCorrector" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Instrument" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Person" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Author" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grant" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OverallMolecule" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Molecule" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ligand" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Specimen" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grid" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sample" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Movies" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Micrographs" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CTFs" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Defocus" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Resolution" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Astigmatism" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Coordinates" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Classes2D" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Classes3D" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Volume" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OrthogonalSlices" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IsosurfaceImages" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Volumes" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Processing" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EMDataset" sheetId="39" state="visible" r:id="rId39"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -483,6 +498,42 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>used</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>width</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
           <t>phaseplate</t>
         </is>
       </c>
@@ -502,7 +553,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -533,7 +584,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -564,7 +615,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -595,7 +646,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -651,7 +702,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -697,7 +748,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -773,7 +824,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -829,7 +880,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -880,7 +931,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -951,7 +1020,477 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>present</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>smiles</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>buffer</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>concentration</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>ph</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>vitrification</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>vitrification_cryogen</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>humidity</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>temperature</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>staining</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>embedding</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>shadowing</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>manufacturer</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>material</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>mesh</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>film_support</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>film_material</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>film_topology</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>film_thickness</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>pretreatment_type</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>pretreatment_time</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>pretreatment_pressure</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>pretreatment_atmosphere</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>overall_molecule</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>molecule</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>ligands</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>specimen</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>grid</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>dose_per_image</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>initial_dose</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>gain_image</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>dark_image</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>descriptors</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>number_micrographs</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>descriptors</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>amplitude_contrast</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>defocus</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>resolution</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>astigmatism</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>descriptors</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>output_min_defocus</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>output_max_defocus</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>output_avg_defocus</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>defocus_histogram</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>defocus_micrograph_examples</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>output_min_resolution</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>output_max_resolution</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>output_avg_resolution</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>resolution_histogram</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>maximal</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -964,12 +1503,199 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>astigmatism_histogram</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>number_particles</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>particles_per_micrograph</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>num_source_micrographs</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>particles_histogram</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>micrograph_examples</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>descriptors</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>number_classes_2D</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>particles_per_2Dclass</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>images_classes_2D</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>resolution_classes_2D</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>descriptors</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>number_classes_3D</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>particles_per_3Dclass</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>images_classes_3D</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>resolution_classes_3D</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>descriptors</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>orthogonal_slices</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>isosurface_images</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -986,501 +1712,461 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>present</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>smiles</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>reference</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>buffer</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>concentration</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>ph</t>
+          <t>orthogonal_slices_X</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>orthogonal_slices_Y</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>orthogonal_slices_Z</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>front_view</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>side_view</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>top_view</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>volume_type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>vol_number_particles</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>size</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>vitrification</t>
+          <t>orthogonal_slices</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>vitrification_cryogen</t>
+          <t>isosurface_images</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>humidity</t>
+          <t>vol_resolution</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>temperature</t>
+          <t>descriptors</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>movies</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>micrographs</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>ctfs</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>coordinates</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>classes2D</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>classes3D</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>volumes</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>acquisition</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>instrument</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>grants</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>authors</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>processing</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>increment</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>maximal</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>height</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>width</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>x_min</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>x_max</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>y_min</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>y_max</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>descriptor_name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>descriptor_thing</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AA1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>nominal_defocus</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>calibrated_defocus</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>nominal_magnification</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>calibrated_magnification</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>holder</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>holder_cryogen</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>temperature_range</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>staining</t>
+          <t>microscope_software</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>embedding</t>
+          <t>detector</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>shadowing</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>manufacturer</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>material</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>mesh</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>film_support</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>film_material</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>film_topology</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>film_thickness</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>pretreatment_type</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>pretreatment_time</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>pretreatment_pressure</t>
+          <t>detector_mode</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>pretreatment_atmosphere</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>overall_molecule</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>molecule</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>ligands</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>specimen</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>grid</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>acquisition</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>instrument</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>sample</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>authors</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>minimal</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>maximal</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>increment</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>minimal</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>maximal</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>height</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>width</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>x_min</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>x_max</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>y_min</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>y_max</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>unit</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AA1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>nominal_defocus</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>calibrated_defocus</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>nominal_magnification</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>calibrated_magnification</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>holder</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>holder_cryogen</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>temperature_range</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>microscope_software</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>detector</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>detector_mode</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
           <t>dose_per_movie</t>
         </is>
       </c>
@@ -1568,40 +2254,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>used</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>model</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>width</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>